--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -46,12 +46,15 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -64,18 +67,12 @@
     <t>panic</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -85,19 +82,34 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thanks</t>
@@ -106,46 +118,34 @@
     <t>nice</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>credit</t>
@@ -154,30 +154,30 @@
     <t>like</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>care</t>
+    <t>please</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -196,13 +196,13 @@
     <t>store</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>19</t>
@@ -566,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -706,16 +706,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.702054794520548</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -785,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5789473684210527</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3866666666666667</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3691275167785235</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3488372093023256</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8359375</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3220338983050847</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.828125</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3121693121693122</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2857142857142857</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8169014084507042</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2333333333333333</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8085106382978723</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1587301587301587</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,69 +1253,45 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L15">
+        <v>95</v>
+      </c>
+      <c r="M15">
+        <v>95</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K15">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L15">
-        <v>41</v>
-      </c>
-      <c r="M15">
-        <v>41</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.1045576407506702</v>
-      </c>
-      <c r="C16">
-        <v>39</v>
-      </c>
-      <c r="D16">
-        <v>39</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>334</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7619047619047619</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L18">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="M18">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1379,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7169811320754716</v>
+        <v>0.70625</v>
       </c>
       <c r="L19">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M19">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1405,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6808510638297872</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L20">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1431,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1457,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.618798955613577</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L22">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M22">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1483,15 +1459,15 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
         <v>30</v>
@@ -1509,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1540,16 +1516,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.5558823529411765</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L25">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1561,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>151</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1587,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5555555555555556</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1613,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.550561797752809</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1639,47 +1615,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.55</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L29">
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>22</v>
-      </c>
-      <c r="M29">
-        <v>22</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>18</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5288135593220339</v>
+        <v>0.4895397489539749</v>
       </c>
       <c r="L30">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="M30">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1691,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4811715481171548</v>
+        <v>0.475</v>
       </c>
       <c r="L31">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1717,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4769230769230769</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1743,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4520547945205479</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1769,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.3974358974358974</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1795,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.375</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1821,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.2714285714285714</v>
+        <v>0.421875</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1847,21 +1823,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.1004784688995215</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1873,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>376</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.09615384615384616</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1899,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.06487695749440715</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L39">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1925,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>836</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.04439511653718091</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1951,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>861</v>
+        <v>848</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.03344867358708189</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1977,85 +1953,111 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>838</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.03240740740740741</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>627</v>
+        <v>840</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.02525724976613658</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L43">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N43">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2084</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44">
+        <v>0.0229293401965372</v>
+      </c>
+      <c r="L44">
+        <v>49</v>
+      </c>
+      <c r="M44">
+        <v>55</v>
+      </c>
+      <c r="N44">
+        <v>0.89</v>
+      </c>
+      <c r="O44">
+        <v>0.11</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K44">
-        <v>0.01257658819735569</v>
-      </c>
-      <c r="L44">
-        <v>39</v>
-      </c>
-      <c r="M44">
-        <v>45</v>
-      </c>
-      <c r="N44">
-        <v>0.87</v>
-      </c>
-      <c r="O44">
-        <v>0.13</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3062</v>
+      <c r="K45">
+        <v>0.01353965183752418</v>
+      </c>
+      <c r="L45">
+        <v>42</v>
+      </c>
+      <c r="M45">
+        <v>47</v>
+      </c>
+      <c r="N45">
+        <v>0.89</v>
+      </c>
+      <c r="O45">
+        <v>0.11</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3060</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
@@ -58,21 +55,30 @@
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -82,22 +88,46 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
@@ -106,109 +136,103 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>energy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>important</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -566,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -685,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>0.9393939393939394</v>
@@ -785,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7241379310344828</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.708904109589041</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C7">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,7 +909,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -903,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3733333333333334</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,16 +1030,16 @@
         <v>94</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3468992248062016</v>
+        <v>0.36</v>
       </c>
       <c r="C11">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>337</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L11">
         <v>30</v>
       </c>
-      <c r="K11">
-        <v>0.828125</v>
-      </c>
-      <c r="L11">
-        <v>106</v>
-      </c>
       <c r="M11">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2962962962962963</v>
+        <v>0.3391472868217054</v>
       </c>
       <c r="C12">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>133</v>
+        <v>341</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.823943661971831</v>
+        <v>0.828125</v>
       </c>
       <c r="L12">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M12">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2727272727272727</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8170731707317073</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1746031746031746</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,89 +1259,137 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.09919571045576407</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>139</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L15">
+        <v>41</v>
+      </c>
+      <c r="M15">
+        <v>41</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>208</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>336</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K16">
+        <v>0.795774647887324</v>
+      </c>
+      <c r="L16">
+        <v>113</v>
+      </c>
+      <c r="M16">
+        <v>113</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.09115281501340483</v>
+      </c>
+      <c r="C17">
         <v>34</v>
       </c>
-      <c r="K15">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L15">
-        <v>95</v>
-      </c>
-      <c r="M15">
-        <v>95</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L16">
-        <v>49</v>
-      </c>
-      <c r="M16">
-        <v>49</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>339</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.7647058823529411</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1332,278 +1404,278 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
+    <row r="18" spans="1:17">
       <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L18">
         <v>37</v>
       </c>
-      <c r="K18">
+      <c r="M18">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L19">
+        <v>22</v>
+      </c>
+      <c r="M19">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L20">
+        <v>46</v>
+      </c>
+      <c r="M20">
+        <v>46</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
         <v>0.7264150943396226</v>
       </c>
-      <c r="L18">
+      <c r="L21">
         <v>77</v>
       </c>
-      <c r="M18">
+      <c r="M21">
         <v>77</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19">
-        <v>0.70625</v>
-      </c>
-      <c r="L19">
-        <v>113</v>
-      </c>
-      <c r="M19">
-        <v>113</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.71875</v>
+      </c>
+      <c r="L22">
+        <v>115</v>
+      </c>
+      <c r="M22">
+        <v>115</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L25">
+        <v>62</v>
+      </c>
+      <c r="M25">
+        <v>62</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>0.6595744680851063</v>
-      </c>
-      <c r="L20">
-        <v>62</v>
-      </c>
-      <c r="M20">
-        <v>62</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>0.64</v>
-      </c>
-      <c r="L21">
-        <v>32</v>
-      </c>
-      <c r="M21">
-        <v>32</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="K26">
+        <v>0.6475195822454308</v>
+      </c>
+      <c r="L26">
+        <v>248</v>
+      </c>
+      <c r="M26">
+        <v>248</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.625</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>0.6266318537859008</v>
-      </c>
-      <c r="L22">
-        <v>240</v>
-      </c>
-      <c r="M22">
-        <v>240</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23">
-        <v>0.625</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>22</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>0.5764705882352941</v>
-      </c>
-      <c r="L26">
-        <v>196</v>
-      </c>
-      <c r="M26">
-        <v>196</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <v>0.550561797752809</v>
-      </c>
-      <c r="L27">
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M27">
-        <v>49</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K28">
-        <v>0.5254237288135594</v>
+        <v>0.58</v>
       </c>
       <c r="L28">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1615,15 +1687,15 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5111111111111111</v>
+        <v>0.575</v>
       </c>
       <c r="L29">
         <v>23</v>
@@ -1641,73 +1713,73 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L30">
+        <v>190</v>
+      </c>
+      <c r="M30">
+        <v>190</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L32">
         <v>49</v>
       </c>
-      <c r="K30">
-        <v>0.4895397489539749</v>
-      </c>
-      <c r="L30">
-        <v>117</v>
-      </c>
-      <c r="M30">
-        <v>117</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31">
-        <v>0.475</v>
-      </c>
-      <c r="L31">
-        <v>19</v>
-      </c>
-      <c r="M31">
-        <v>19</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="L32">
-        <v>34</v>
-      </c>
       <c r="M32">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1719,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4523809523809524</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1745,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.4307692307692308</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1771,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1797,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.421875</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1823,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.3142857142857143</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1849,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.09330143540669857</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1875,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>379</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.09134615384615384</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1901,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>378</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.05145413870246085</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L40">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1927,15 +1999,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>848</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.03846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L41">
         <v>25</v>
@@ -1953,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>625</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.03114186851211072</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1979,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>840</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.02996670366259711</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2005,59 +2077,215 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>874</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.0229293401965372</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L44">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N44">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2088</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.01353965183752418</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L45">
+        <v>63</v>
+      </c>
+      <c r="M45">
+        <v>63</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46">
+        <v>0.04439511653718091</v>
+      </c>
+      <c r="L46">
+        <v>40</v>
+      </c>
+      <c r="M46">
+        <v>40</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47">
+        <v>0.03538461538461538</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K48">
+        <v>0.03274087932647334</v>
+      </c>
+      <c r="L48">
+        <v>70</v>
+      </c>
+      <c r="M48">
+        <v>75</v>
+      </c>
+      <c r="N48">
+        <v>0.93</v>
+      </c>
+      <c r="O48">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49">
+        <v>0.02998846597462514</v>
+      </c>
+      <c r="L49">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50">
+        <v>0.01353528843055108</v>
+      </c>
+      <c r="L50">
         <v>42</v>
       </c>
-      <c r="M45">
-        <v>47</v>
-      </c>
-      <c r="N45">
-        <v>0.89</v>
-      </c>
-      <c r="O45">
-        <v>0.11</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3060</v>
+      <c r="M50">
+        <v>46</v>
+      </c>
+      <c r="N50">
+        <v>0.91</v>
+      </c>
+      <c r="O50">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51">
+        <v>0.008142812402129659</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <v>34</v>
+      </c>
+      <c r="N51">
+        <v>0.76</v>
+      </c>
+      <c r="O51">
+        <v>0.24</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3167</v>
       </c>
     </row>
   </sheetData>
